--- a/input/TRA_hist.xlsx
+++ b/input/TRA_hist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epish\PycharmProjects\endemo-endemo-v2\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84066717-8A11-481B-96FE-DD600869B6F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F212B0B2-307C-4713-A8C8-AACE1D87A653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="852" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="elec_rail" sheetId="14" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$AY$977</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$AY$978</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8244" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8397" uniqueCount="382">
   <si>
     <t>Country</t>
   </si>
@@ -1347,7 +1347,7 @@
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1412,6 +1412,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1696,13 +1697,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AY977"/>
+  <dimension ref="A1:AY978"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G146" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="AJ112" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D157" sqref="D157"/>
+      <selection pane="bottomRight" activeCell="A978" sqref="A978:XFD979"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4798,7 +4799,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="112" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>3</v>
       </c>
@@ -5682,7 +5683,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="146" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>1</v>
       </c>
@@ -5795,7 +5796,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="147" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>2</v>
       </c>
@@ -5898,7 +5899,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="148" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>3</v>
       </c>
@@ -6005,7 +6006,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="149" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>4</v>
       </c>
@@ -6118,7 +6119,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="150" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>5</v>
       </c>
@@ -6231,7 +6232,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="151" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>6</v>
       </c>
@@ -6328,7 +6329,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="152" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>7</v>
       </c>
@@ -6441,7 +6442,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="153" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>8</v>
       </c>
@@ -6554,7 +6555,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="154" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>9</v>
       </c>
@@ -6667,7 +6668,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="155" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>10</v>
       </c>
@@ -6780,7 +6781,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="156" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>11</v>
       </c>
@@ -6883,7 +6884,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="157" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>12</v>
       </c>
@@ -6996,7 +6997,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="158" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>13</v>
       </c>
@@ -7099,7 +7100,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="159" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>14</v>
       </c>
@@ -7202,7 +7203,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="160" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>15</v>
       </c>
@@ -7295,7 +7296,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="161" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>16</v>
       </c>
@@ -7408,7 +7409,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="162" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>17</v>
       </c>
@@ -7521,7 +7522,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="163" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>18</v>
       </c>
@@ -7624,7 +7625,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="164" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>19</v>
       </c>
@@ -7721,7 +7722,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="165" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>20</v>
       </c>
@@ -7834,7 +7835,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="166" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>21</v>
       </c>
@@ -7947,7 +7948,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="167" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>22</v>
       </c>
@@ -8060,7 +8061,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="168" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>23</v>
       </c>
@@ -8163,7 +8164,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="169" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>24</v>
       </c>
@@ -8276,7 +8277,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="170" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>25</v>
       </c>
@@ -8383,7 +8384,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="171" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>26</v>
       </c>
@@ -8496,7 +8497,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="172" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>27</v>
       </c>
@@ -8609,7 +8610,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="173" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>28</v>
       </c>
@@ -8722,7 +8723,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="174" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>29</v>
       </c>
@@ -8825,7 +8826,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="175" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>30</v>
       </c>
@@ -8930,7 +8931,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="176" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>31</v>
       </c>
@@ -9043,7 +9044,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="177" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>32</v>
       </c>
@@ -9116,7 +9117,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="178" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>33</v>
       </c>
@@ -9213,7 +9214,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="179" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>34</v>
       </c>
@@ -9286,7 +9287,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="180" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>35</v>
       </c>
@@ -9428,7 +9429,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="181" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>36</v>
       </c>
@@ -9570,7 +9571,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="182" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>1</v>
       </c>
@@ -9683,7 +9684,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="183" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>2</v>
       </c>
@@ -9796,7 +9797,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="184" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>3</v>
       </c>
@@ -9909,7 +9910,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="185" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>4</v>
       </c>
@@ -10022,7 +10023,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="186" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>5</v>
       </c>
@@ -10135,7 +10136,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="187" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>6</v>
       </c>
@@ -10248,7 +10249,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="188" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>7</v>
       </c>
@@ -10361,7 +10362,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="189" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>8</v>
       </c>
@@ -10474,7 +10475,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="190" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>9</v>
       </c>
@@ -10587,7 +10588,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="191" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>10</v>
       </c>
@@ -10700,7 +10701,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="192" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>11</v>
       </c>
@@ -10813,7 +10814,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="193" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>12</v>
       </c>
@@ -10926,7 +10927,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="194" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>13</v>
       </c>
@@ -11039,7 +11040,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="195" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>14</v>
       </c>
@@ -11152,7 +11153,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="196" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>15</v>
       </c>
@@ -11265,7 +11266,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="197" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>16</v>
       </c>
@@ -11378,7 +11379,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="198" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>17</v>
       </c>
@@ -11491,7 +11492,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="199" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>18</v>
       </c>
@@ -11604,7 +11605,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="200" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>19</v>
       </c>
@@ -11717,7 +11718,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="201" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>20</v>
       </c>
@@ -11830,7 +11831,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="202" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>21</v>
       </c>
@@ -11943,7 +11944,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="203" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>22</v>
       </c>
@@ -12056,7 +12057,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="204" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>23</v>
       </c>
@@ -12169,7 +12170,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="205" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>24</v>
       </c>
@@ -12282,7 +12283,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="206" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>25</v>
       </c>
@@ -12395,7 +12396,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="207" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>26</v>
       </c>
@@ -12508,7 +12509,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="208" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>27</v>
       </c>
@@ -12621,7 +12622,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="209" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>28</v>
       </c>
@@ -12734,7 +12735,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="210" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>29</v>
       </c>
@@ -12847,7 +12848,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="211" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>30</v>
       </c>
@@ -12960,7 +12961,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="212" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>31</v>
       </c>
@@ -13073,7 +13074,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="213" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>32</v>
       </c>
@@ -13186,7 +13187,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="214" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>33</v>
       </c>
@@ -13299,7 +13300,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="215" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>34</v>
       </c>
@@ -13412,7 +13413,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="216" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>35</v>
       </c>
@@ -13525,7 +13526,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="217" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>36</v>
       </c>
@@ -13638,7 +13639,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="218" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>1</v>
       </c>
@@ -13751,7 +13752,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="219" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>2</v>
       </c>
@@ -13864,7 +13865,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="220" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>3</v>
       </c>
@@ -13977,7 +13978,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="221" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>4</v>
       </c>
@@ -14090,7 +14091,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="222" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>5</v>
       </c>
@@ -14203,7 +14204,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="223" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>6</v>
       </c>
@@ -14316,7 +14317,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="224" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>7</v>
       </c>
@@ -14429,7 +14430,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="225" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>8</v>
       </c>
@@ -14542,7 +14543,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="226" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>9</v>
       </c>
@@ -14655,7 +14656,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="227" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>10</v>
       </c>
@@ -14768,7 +14769,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="228" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>11</v>
       </c>
@@ -14881,7 +14882,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="229" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>12</v>
       </c>
@@ -14994,7 +14995,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="230" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>13</v>
       </c>
@@ -15107,7 +15108,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="231" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>14</v>
       </c>
@@ -15220,7 +15221,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="232" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>15</v>
       </c>
@@ -15333,7 +15334,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="233" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>16</v>
       </c>
@@ -15446,7 +15447,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="234" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>17</v>
       </c>
@@ -15559,7 +15560,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="235" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>18</v>
       </c>
@@ -15672,7 +15673,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="236" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>19</v>
       </c>
@@ -15785,7 +15786,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="237" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>20</v>
       </c>
@@ -15898,7 +15899,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="238" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>21</v>
       </c>
@@ -16011,7 +16012,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="239" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>22</v>
       </c>
@@ -16124,7 +16125,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="240" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>23</v>
       </c>
@@ -16237,7 +16238,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="241" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>24</v>
       </c>
@@ -16350,7 +16351,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="242" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>25</v>
       </c>
@@ -16463,7 +16464,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="243" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>26</v>
       </c>
@@ -16576,7 +16577,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="244" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>27</v>
       </c>
@@ -16689,7 +16690,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="245" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>28</v>
       </c>
@@ -16802,7 +16803,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="246" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>29</v>
       </c>
@@ -16915,7 +16916,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="247" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>30</v>
       </c>
@@ -17028,7 +17029,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="248" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>31</v>
       </c>
@@ -17141,7 +17142,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="249" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>32</v>
       </c>
@@ -17254,7 +17255,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="250" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>33</v>
       </c>
@@ -17367,7 +17368,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="251" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>34</v>
       </c>
@@ -17480,7 +17481,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="252" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>35</v>
       </c>
@@ -17593,7 +17594,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="253" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>36</v>
       </c>
@@ -36952,6 +36953,9 @@
       <c r="D585" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E585" t="s">
+        <v>281</v>
+      </c>
       <c r="F585" s="9" t="s">
         <v>254</v>
       </c>
@@ -37019,6 +37023,9 @@
       <c r="D586" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E586" t="s">
+        <v>281</v>
+      </c>
       <c r="F586" s="9" t="s">
         <v>254</v>
       </c>
@@ -37073,7 +37080,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="587" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A587" s="1" t="s">
         <v>3</v>
       </c>
@@ -37085,6 +37092,9 @@
       </c>
       <c r="D587" s="9" t="s">
         <v>137</v>
+      </c>
+      <c r="E587" t="s">
+        <v>281</v>
       </c>
       <c r="F587" s="9" t="s">
         <v>254</v>
@@ -37153,6 +37163,9 @@
       <c r="D588" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E588" t="s">
+        <v>281</v>
+      </c>
       <c r="F588" s="9" t="s">
         <v>254</v>
       </c>
@@ -37220,6 +37233,9 @@
       <c r="D589" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E589" t="s">
+        <v>281</v>
+      </c>
       <c r="F589" s="9" t="s">
         <v>254</v>
       </c>
@@ -37287,6 +37303,9 @@
       <c r="D590" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E590" t="s">
+        <v>281</v>
+      </c>
       <c r="F590" s="9" t="s">
         <v>254</v>
       </c>
@@ -37354,6 +37373,9 @@
       <c r="D591" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E591" t="s">
+        <v>281</v>
+      </c>
       <c r="F591" s="9" t="s">
         <v>254</v>
       </c>
@@ -37421,6 +37443,9 @@
       <c r="D592" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E592" t="s">
+        <v>281</v>
+      </c>
       <c r="F592" s="9" t="s">
         <v>254</v>
       </c>
@@ -37488,6 +37513,9 @@
       <c r="D593" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E593" t="s">
+        <v>281</v>
+      </c>
       <c r="F593" s="9" t="s">
         <v>254</v>
       </c>
@@ -37555,6 +37583,9 @@
       <c r="D594" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E594" t="s">
+        <v>281</v>
+      </c>
       <c r="F594" s="9" t="s">
         <v>254</v>
       </c>
@@ -37622,6 +37653,9 @@
       <c r="D595" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E595" t="s">
+        <v>281</v>
+      </c>
       <c r="F595" s="9" t="s">
         <v>254</v>
       </c>
@@ -37689,6 +37723,9 @@
       <c r="D596" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E596" t="s">
+        <v>281</v>
+      </c>
       <c r="F596" s="9" t="s">
         <v>254</v>
       </c>
@@ -37756,6 +37793,9 @@
       <c r="D597" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E597" t="s">
+        <v>281</v>
+      </c>
       <c r="F597" s="9" t="s">
         <v>254</v>
       </c>
@@ -37823,6 +37863,9 @@
       <c r="D598" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E598" t="s">
+        <v>281</v>
+      </c>
       <c r="F598" s="9" t="s">
         <v>254</v>
       </c>
@@ -37890,6 +37933,9 @@
       <c r="D599" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E599" t="s">
+        <v>281</v>
+      </c>
       <c r="F599" s="9" t="s">
         <v>254</v>
       </c>
@@ -37957,6 +38003,9 @@
       <c r="D600" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E600" t="s">
+        <v>281</v>
+      </c>
       <c r="F600" s="9" t="s">
         <v>254</v>
       </c>
@@ -38024,6 +38073,9 @@
       <c r="D601" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E601" t="s">
+        <v>281</v>
+      </c>
       <c r="F601" s="9" t="s">
         <v>254</v>
       </c>
@@ -38091,6 +38143,9 @@
       <c r="D602" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E602" t="s">
+        <v>281</v>
+      </c>
       <c r="F602" s="9" t="s">
         <v>254</v>
       </c>
@@ -38158,6 +38213,9 @@
       <c r="D603" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E603" t="s">
+        <v>281</v>
+      </c>
       <c r="F603" s="9" t="s">
         <v>254</v>
       </c>
@@ -38225,6 +38283,9 @@
       <c r="D604" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E604" t="s">
+        <v>281</v>
+      </c>
       <c r="F604" s="9" t="s">
         <v>254</v>
       </c>
@@ -38292,6 +38353,9 @@
       <c r="D605" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E605" t="s">
+        <v>281</v>
+      </c>
       <c r="F605" s="9" t="s">
         <v>254</v>
       </c>
@@ -38359,6 +38423,9 @@
       <c r="D606" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E606" t="s">
+        <v>281</v>
+      </c>
       <c r="F606" s="9" t="s">
         <v>254</v>
       </c>
@@ -38426,6 +38493,9 @@
       <c r="D607" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E607" t="s">
+        <v>281</v>
+      </c>
       <c r="F607" s="9" t="s">
         <v>254</v>
       </c>
@@ -38493,6 +38563,9 @@
       <c r="D608" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E608" t="s">
+        <v>281</v>
+      </c>
       <c r="F608" s="9" t="s">
         <v>254</v>
       </c>
@@ -38560,6 +38633,9 @@
       <c r="D609" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E609" t="s">
+        <v>281</v>
+      </c>
       <c r="F609" s="9" t="s">
         <v>254</v>
       </c>
@@ -38627,6 +38703,9 @@
       <c r="D610" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E610" t="s">
+        <v>281</v>
+      </c>
       <c r="F610" s="9" t="s">
         <v>254</v>
       </c>
@@ -38694,6 +38773,9 @@
       <c r="D611" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E611" t="s">
+        <v>281</v>
+      </c>
       <c r="F611" s="9" t="s">
         <v>254</v>
       </c>
@@ -38761,6 +38843,9 @@
       <c r="D612" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E612" t="s">
+        <v>281</v>
+      </c>
       <c r="F612" s="9" t="s">
         <v>254</v>
       </c>
@@ -38828,6 +38913,9 @@
       <c r="D613" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E613" t="s">
+        <v>281</v>
+      </c>
       <c r="F613" s="9" t="s">
         <v>254</v>
       </c>
@@ -38895,6 +38983,9 @@
       <c r="D614" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E614" t="s">
+        <v>281</v>
+      </c>
       <c r="F614" s="9" t="s">
         <v>254</v>
       </c>
@@ -38962,6 +39053,9 @@
       <c r="D615" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E615" t="s">
+        <v>281</v>
+      </c>
       <c r="F615" s="9" t="s">
         <v>254</v>
       </c>
@@ -39029,6 +39123,9 @@
       <c r="D616" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E616" t="s">
+        <v>281</v>
+      </c>
       <c r="F616" s="9" t="s">
         <v>254</v>
       </c>
@@ -39096,6 +39193,9 @@
       <c r="D617" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E617" t="s">
+        <v>281</v>
+      </c>
       <c r="F617" s="9" t="s">
         <v>254</v>
       </c>
@@ -39163,6 +39263,9 @@
       <c r="D618" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E618" t="s">
+        <v>281</v>
+      </c>
       <c r="F618" s="9" t="s">
         <v>254</v>
       </c>
@@ -39230,6 +39333,9 @@
       <c r="D619" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E619" t="s">
+        <v>281</v>
+      </c>
       <c r="F619" s="9" t="s">
         <v>254</v>
       </c>
@@ -39297,6 +39403,9 @@
       <c r="D620" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E620" t="s">
+        <v>281</v>
+      </c>
       <c r="F620" s="9" t="s">
         <v>254</v>
       </c>
@@ -39364,6 +39473,9 @@
       <c r="D621" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E621" t="s">
+        <v>281</v>
+      </c>
       <c r="F621" s="9" t="s">
         <v>255</v>
       </c>
@@ -39431,6 +39543,9 @@
       <c r="D622" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E622" t="s">
+        <v>281</v>
+      </c>
       <c r="F622" s="9" t="s">
         <v>255</v>
       </c>
@@ -39485,7 +39600,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="623" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A623" s="1" t="s">
         <v>3</v>
       </c>
@@ -39497,6 +39612,9 @@
       </c>
       <c r="D623" s="9" t="s">
         <v>137</v>
+      </c>
+      <c r="E623" t="s">
+        <v>281</v>
       </c>
       <c r="F623" s="9" t="s">
         <v>255</v>
@@ -39565,6 +39683,9 @@
       <c r="D624" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E624" t="s">
+        <v>281</v>
+      </c>
       <c r="F624" s="9" t="s">
         <v>255</v>
       </c>
@@ -39632,6 +39753,9 @@
       <c r="D625" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E625" t="s">
+        <v>281</v>
+      </c>
       <c r="F625" s="9" t="s">
         <v>255</v>
       </c>
@@ -39699,6 +39823,9 @@
       <c r="D626" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E626" t="s">
+        <v>281</v>
+      </c>
       <c r="F626" s="9" t="s">
         <v>255</v>
       </c>
@@ -39766,6 +39893,9 @@
       <c r="D627" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E627" t="s">
+        <v>281</v>
+      </c>
       <c r="F627" s="9" t="s">
         <v>255</v>
       </c>
@@ -39833,6 +39963,9 @@
       <c r="D628" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E628" t="s">
+        <v>281</v>
+      </c>
       <c r="F628" s="9" t="s">
         <v>255</v>
       </c>
@@ -39900,6 +40033,9 @@
       <c r="D629" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E629" t="s">
+        <v>281</v>
+      </c>
       <c r="F629" s="9" t="s">
         <v>255</v>
       </c>
@@ -39967,6 +40103,9 @@
       <c r="D630" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E630" t="s">
+        <v>281</v>
+      </c>
       <c r="F630" s="9" t="s">
         <v>255</v>
       </c>
@@ -40034,6 +40173,9 @@
       <c r="D631" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E631" t="s">
+        <v>281</v>
+      </c>
       <c r="F631" s="9" t="s">
         <v>255</v>
       </c>
@@ -40101,6 +40243,9 @@
       <c r="D632" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E632" t="s">
+        <v>281</v>
+      </c>
       <c r="F632" s="9" t="s">
         <v>255</v>
       </c>
@@ -40168,6 +40313,9 @@
       <c r="D633" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E633" t="s">
+        <v>281</v>
+      </c>
       <c r="F633" s="9" t="s">
         <v>255</v>
       </c>
@@ -40235,6 +40383,9 @@
       <c r="D634" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E634" t="s">
+        <v>281</v>
+      </c>
       <c r="F634" s="9" t="s">
         <v>255</v>
       </c>
@@ -40302,6 +40453,9 @@
       <c r="D635" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E635" t="s">
+        <v>281</v>
+      </c>
       <c r="F635" s="9" t="s">
         <v>255</v>
       </c>
@@ -40369,6 +40523,9 @@
       <c r="D636" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E636" t="s">
+        <v>281</v>
+      </c>
       <c r="F636" s="9" t="s">
         <v>255</v>
       </c>
@@ -40436,6 +40593,9 @@
       <c r="D637" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E637" t="s">
+        <v>281</v>
+      </c>
       <c r="F637" s="9" t="s">
         <v>255</v>
       </c>
@@ -40503,6 +40663,9 @@
       <c r="D638" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E638" t="s">
+        <v>281</v>
+      </c>
       <c r="F638" s="9" t="s">
         <v>255</v>
       </c>
@@ -40570,6 +40733,9 @@
       <c r="D639" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E639" t="s">
+        <v>281</v>
+      </c>
       <c r="F639" s="9" t="s">
         <v>255</v>
       </c>
@@ -40637,6 +40803,9 @@
       <c r="D640" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E640" t="s">
+        <v>281</v>
+      </c>
       <c r="F640" s="9" t="s">
         <v>255</v>
       </c>
@@ -40704,6 +40873,9 @@
       <c r="D641" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E641" t="s">
+        <v>281</v>
+      </c>
       <c r="F641" s="9" t="s">
         <v>255</v>
       </c>
@@ -40771,6 +40943,9 @@
       <c r="D642" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E642" t="s">
+        <v>281</v>
+      </c>
       <c r="F642" s="9" t="s">
         <v>255</v>
       </c>
@@ -40838,6 +41013,9 @@
       <c r="D643" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E643" t="s">
+        <v>281</v>
+      </c>
       <c r="F643" s="9" t="s">
         <v>255</v>
       </c>
@@ -40905,6 +41083,9 @@
       <c r="D644" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E644" t="s">
+        <v>281</v>
+      </c>
       <c r="F644" s="9" t="s">
         <v>255</v>
       </c>
@@ -40972,6 +41153,9 @@
       <c r="D645" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E645" t="s">
+        <v>281</v>
+      </c>
       <c r="F645" s="9" t="s">
         <v>255</v>
       </c>
@@ -41039,6 +41223,9 @@
       <c r="D646" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E646" t="s">
+        <v>281</v>
+      </c>
       <c r="F646" s="9" t="s">
         <v>255</v>
       </c>
@@ -41106,6 +41293,9 @@
       <c r="D647" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E647" t="s">
+        <v>281</v>
+      </c>
       <c r="F647" s="9" t="s">
         <v>255</v>
       </c>
@@ -41173,6 +41363,9 @@
       <c r="D648" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E648" t="s">
+        <v>281</v>
+      </c>
       <c r="F648" s="9" t="s">
         <v>255</v>
       </c>
@@ -41240,6 +41433,9 @@
       <c r="D649" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E649" t="s">
+        <v>281</v>
+      </c>
       <c r="F649" s="9" t="s">
         <v>255</v>
       </c>
@@ -41307,6 +41503,9 @@
       <c r="D650" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E650" t="s">
+        <v>281</v>
+      </c>
       <c r="F650" s="9" t="s">
         <v>255</v>
       </c>
@@ -41374,6 +41573,9 @@
       <c r="D651" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E651" t="s">
+        <v>281</v>
+      </c>
       <c r="F651" s="9" t="s">
         <v>255</v>
       </c>
@@ -41441,6 +41643,9 @@
       <c r="D652" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E652" t="s">
+        <v>281</v>
+      </c>
       <c r="F652" s="9" t="s">
         <v>255</v>
       </c>
@@ -41508,6 +41713,9 @@
       <c r="D653" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E653" t="s">
+        <v>281</v>
+      </c>
       <c r="F653" s="9" t="s">
         <v>255</v>
       </c>
@@ -41575,6 +41783,9 @@
       <c r="D654" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E654" t="s">
+        <v>281</v>
+      </c>
       <c r="F654" s="9" t="s">
         <v>255</v>
       </c>
@@ -41642,6 +41853,9 @@
       <c r="D655" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E655" t="s">
+        <v>281</v>
+      </c>
       <c r="F655" s="9" t="s">
         <v>255</v>
       </c>
@@ -41708,6 +41922,9 @@
       </c>
       <c r="D656" s="9" t="s">
         <v>137</v>
+      </c>
+      <c r="E656" t="s">
+        <v>281</v>
       </c>
       <c r="F656" s="9" t="s">
         <v>255</v>
@@ -55276,6 +55493,9 @@
       <c r="D873" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E873" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F873" s="9" t="s">
         <v>254</v>
       </c>
@@ -55335,6 +55555,9 @@
       <c r="D874" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E874" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F874" s="9" t="s">
         <v>254</v>
       </c>
@@ -55394,6 +55617,9 @@
       <c r="D875" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E875" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F875" s="9" t="s">
         <v>254</v>
       </c>
@@ -55453,6 +55679,9 @@
       <c r="D876" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E876" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F876" s="9" t="s">
         <v>254</v>
       </c>
@@ -55512,6 +55741,9 @@
       <c r="D877" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E877" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F877" s="9" t="s">
         <v>254</v>
       </c>
@@ -55571,6 +55803,9 @@
       <c r="D878" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E878" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F878" s="9" t="s">
         <v>254</v>
       </c>
@@ -55630,6 +55865,9 @@
       <c r="D879" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E879" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F879" s="9" t="s">
         <v>254</v>
       </c>
@@ -55689,6 +55927,9 @@
       <c r="D880" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E880" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F880" s="9" t="s">
         <v>254</v>
       </c>
@@ -55748,6 +55989,9 @@
       <c r="D881" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E881" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F881" s="9" t="s">
         <v>254</v>
       </c>
@@ -55807,6 +56051,9 @@
       <c r="D882" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E882" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F882" s="9" t="s">
         <v>254</v>
       </c>
@@ -55866,6 +56113,9 @@
       <c r="D883" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E883" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F883" s="9" t="s">
         <v>254</v>
       </c>
@@ -55925,6 +56175,9 @@
       <c r="D884" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E884" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F884" s="9" t="s">
         <v>254</v>
       </c>
@@ -55984,6 +56237,9 @@
       <c r="D885" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E885" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F885" s="9" t="s">
         <v>254</v>
       </c>
@@ -56043,6 +56299,9 @@
       <c r="D886" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E886" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F886" s="9" t="s">
         <v>254</v>
       </c>
@@ -56102,6 +56361,9 @@
       <c r="D887" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E887" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F887" s="9" t="s">
         <v>254</v>
       </c>
@@ -56161,6 +56423,9 @@
       <c r="D888" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E888" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F888" s="9" t="s">
         <v>254</v>
       </c>
@@ -56220,6 +56485,9 @@
       <c r="D889" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E889" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F889" s="9" t="s">
         <v>254</v>
       </c>
@@ -56279,6 +56547,9 @@
       <c r="D890" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E890" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F890" s="9" t="s">
         <v>254</v>
       </c>
@@ -56338,6 +56609,9 @@
       <c r="D891" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E891" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F891" s="9" t="s">
         <v>254</v>
       </c>
@@ -56397,6 +56671,9 @@
       <c r="D892" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E892" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F892" s="9" t="s">
         <v>254</v>
       </c>
@@ -56456,6 +56733,9 @@
       <c r="D893" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E893" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F893" s="9" t="s">
         <v>254</v>
       </c>
@@ -56515,6 +56795,9 @@
       <c r="D894" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E894" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F894" s="9" t="s">
         <v>254</v>
       </c>
@@ -56574,6 +56857,9 @@
       <c r="D895" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E895" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F895" s="9" t="s">
         <v>254</v>
       </c>
@@ -56633,6 +56919,9 @@
       <c r="D896" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E896" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F896" s="9" t="s">
         <v>254</v>
       </c>
@@ -56692,6 +56981,9 @@
       <c r="D897" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E897" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F897" s="9" t="s">
         <v>254</v>
       </c>
@@ -56751,6 +57043,9 @@
       <c r="D898" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E898" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F898" s="9" t="s">
         <v>254</v>
       </c>
@@ -56810,6 +57105,9 @@
       <c r="D899" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E899" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F899" s="9" t="s">
         <v>254</v>
       </c>
@@ -56869,6 +57167,9 @@
       <c r="D900" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E900" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F900" s="9" t="s">
         <v>254</v>
       </c>
@@ -56928,6 +57229,9 @@
       <c r="D901" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E901" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F901" s="9" t="s">
         <v>254</v>
       </c>
@@ -56987,6 +57291,9 @@
       <c r="D902" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E902" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F902" s="9" t="s">
         <v>254</v>
       </c>
@@ -57046,6 +57353,9 @@
       <c r="D903" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E903" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F903" s="9" t="s">
         <v>254</v>
       </c>
@@ -57105,6 +57415,9 @@
       <c r="D904" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E904" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F904" s="9" t="s">
         <v>254</v>
       </c>
@@ -57164,6 +57477,9 @@
       <c r="D905" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E905" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F905" s="9" t="s">
         <v>254</v>
       </c>
@@ -57223,6 +57539,9 @@
       <c r="D906" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E906" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F906" s="9" t="s">
         <v>254</v>
       </c>
@@ -57282,6 +57601,9 @@
       <c r="D907" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E907" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F907" s="9" t="s">
         <v>254</v>
       </c>
@@ -57341,6 +57663,9 @@
       <c r="D908" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E908" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F908" s="9" t="s">
         <v>254</v>
       </c>
@@ -57400,6 +57725,9 @@
       <c r="D909" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E909" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F909" s="9" t="s">
         <v>255</v>
       </c>
@@ -57459,6 +57787,9 @@
       <c r="D910" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E910" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F910" s="9" t="s">
         <v>255</v>
       </c>
@@ -57518,6 +57849,9 @@
       <c r="D911" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E911" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F911" s="9" t="s">
         <v>255</v>
       </c>
@@ -57577,6 +57911,9 @@
       <c r="D912" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E912" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F912" s="9" t="s">
         <v>255</v>
       </c>
@@ -57636,6 +57973,9 @@
       <c r="D913" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E913" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F913" s="9" t="s">
         <v>255</v>
       </c>
@@ -57695,6 +58035,9 @@
       <c r="D914" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E914" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F914" s="9" t="s">
         <v>255</v>
       </c>
@@ -57754,6 +58097,9 @@
       <c r="D915" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E915" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F915" s="9" t="s">
         <v>255</v>
       </c>
@@ -57813,6 +58159,9 @@
       <c r="D916" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E916" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F916" s="9" t="s">
         <v>255</v>
       </c>
@@ -57872,6 +58221,9 @@
       <c r="D917" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E917" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F917" s="9" t="s">
         <v>255</v>
       </c>
@@ -57931,6 +58283,9 @@
       <c r="D918" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E918" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F918" s="9" t="s">
         <v>255</v>
       </c>
@@ -57990,6 +58345,9 @@
       <c r="D919" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E919" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F919" s="9" t="s">
         <v>255</v>
       </c>
@@ -58049,6 +58407,9 @@
       <c r="D920" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E920" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F920" s="9" t="s">
         <v>255</v>
       </c>
@@ -58108,6 +58469,9 @@
       <c r="D921" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E921" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F921" s="9" t="s">
         <v>255</v>
       </c>
@@ -58167,6 +58531,9 @@
       <c r="D922" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E922" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F922" s="9" t="s">
         <v>255</v>
       </c>
@@ -58226,6 +58593,9 @@
       <c r="D923" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E923" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F923" s="9" t="s">
         <v>255</v>
       </c>
@@ -58285,6 +58655,9 @@
       <c r="D924" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E924" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F924" s="9" t="s">
         <v>255</v>
       </c>
@@ -58344,6 +58717,9 @@
       <c r="D925" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E925" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F925" s="9" t="s">
         <v>255</v>
       </c>
@@ -58403,6 +58779,9 @@
       <c r="D926" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E926" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F926" s="9" t="s">
         <v>255</v>
       </c>
@@ -58462,6 +58841,9 @@
       <c r="D927" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E927" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F927" s="9" t="s">
         <v>255</v>
       </c>
@@ -58521,6 +58903,9 @@
       <c r="D928" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E928" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F928" s="9" t="s">
         <v>255</v>
       </c>
@@ -58580,6 +58965,9 @@
       <c r="D929" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E929" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F929" s="9" t="s">
         <v>255</v>
       </c>
@@ -58639,6 +59027,9 @@
       <c r="D930" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E930" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F930" s="9" t="s">
         <v>255</v>
       </c>
@@ -58698,6 +59089,9 @@
       <c r="D931" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E931" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F931" s="9" t="s">
         <v>255</v>
       </c>
@@ -58757,6 +59151,9 @@
       <c r="D932" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E932" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F932" s="9" t="s">
         <v>255</v>
       </c>
@@ -58816,6 +59213,9 @@
       <c r="D933" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E933" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F933" s="9" t="s">
         <v>255</v>
       </c>
@@ -58875,6 +59275,9 @@
       <c r="D934" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E934" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F934" s="9" t="s">
         <v>255</v>
       </c>
@@ -58934,6 +59337,9 @@
       <c r="D935" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E935" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F935" s="9" t="s">
         <v>255</v>
       </c>
@@ -58993,6 +59399,9 @@
       <c r="D936" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E936" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F936" s="9" t="s">
         <v>255</v>
       </c>
@@ -59052,6 +59461,9 @@
       <c r="D937" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E937" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F937" s="9" t="s">
         <v>255</v>
       </c>
@@ -59111,6 +59523,9 @@
       <c r="D938" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E938" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F938" s="9" t="s">
         <v>255</v>
       </c>
@@ -59170,6 +59585,9 @@
       <c r="D939" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E939" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F939" s="9" t="s">
         <v>255</v>
       </c>
@@ -59229,6 +59647,9 @@
       <c r="D940" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E940" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F940" s="9" t="s">
         <v>255</v>
       </c>
@@ -59288,6 +59709,9 @@
       <c r="D941" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E941" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F941" s="9" t="s">
         <v>255</v>
       </c>
@@ -59347,6 +59771,9 @@
       <c r="D942" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E942" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F942" s="9" t="s">
         <v>255</v>
       </c>
@@ -59406,6 +59833,9 @@
       <c r="D943" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E943" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F943" s="9" t="s">
         <v>255</v>
       </c>
@@ -59465,6 +59895,9 @@
       <c r="D944" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="E944" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F944" s="9" t="s">
         <v>255</v>
       </c>
@@ -59524,7 +59957,7 @@
       <c r="D945" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="E945" t="s">
+      <c r="E945" s="36" t="s">
         <v>141</v>
       </c>
       <c r="F945" s="9" t="s">
@@ -59562,7 +59995,7 @@
       <c r="D946" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="E946" t="s">
+      <c r="E946" s="36" t="s">
         <v>141</v>
       </c>
       <c r="F946" s="9" t="s">
@@ -59600,7 +60033,7 @@
       <c r="D947" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="E947" t="s">
+      <c r="E947" s="36" t="s">
         <v>141</v>
       </c>
       <c r="F947" s="9" t="s">
@@ -59638,7 +60071,7 @@
       <c r="D948" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="E948" t="s">
+      <c r="E948" s="36" t="s">
         <v>141</v>
       </c>
       <c r="F948" s="9" t="s">
@@ -59676,7 +60109,7 @@
       <c r="D949" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="E949" t="s">
+      <c r="E949" s="36" t="s">
         <v>141</v>
       </c>
       <c r="F949" s="9" t="s">
@@ -59714,7 +60147,7 @@
       <c r="D950" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="E950" t="s">
+      <c r="E950" s="36" t="s">
         <v>142</v>
       </c>
       <c r="F950" s="9" t="s">
@@ -59752,7 +60185,7 @@
       <c r="D951" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="E951" t="s">
+      <c r="E951" s="36" t="s">
         <v>142</v>
       </c>
       <c r="F951" s="9" t="s">
@@ -59790,7 +60223,7 @@
       <c r="D952" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="E952" t="s">
+      <c r="E952" s="36" t="s">
         <v>142</v>
       </c>
       <c r="F952" s="9" t="s">
@@ -59828,7 +60261,7 @@
       <c r="D953" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="E953" t="s">
+      <c r="E953" s="36" t="s">
         <v>138</v>
       </c>
       <c r="F953" s="9" t="s">
@@ -59866,7 +60299,7 @@
       <c r="D954" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="E954" t="s">
+      <c r="E954" s="36" t="s">
         <v>138</v>
       </c>
       <c r="F954" s="9" t="s">
@@ -59904,7 +60337,7 @@
       <c r="D955" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="E955" t="s">
+      <c r="E955" s="36" t="s">
         <v>138</v>
       </c>
       <c r="F955" s="9" t="s">
@@ -59942,6 +60375,9 @@
       <c r="D956" s="9" t="s">
         <v>282</v>
       </c>
+      <c r="E956" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F956" s="9" t="s">
         <v>255</v>
       </c>
@@ -59977,6 +60413,9 @@
       <c r="D957" s="9" t="s">
         <v>282</v>
       </c>
+      <c r="E957" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="F957" s="9" t="s">
         <v>324</v>
       </c>
@@ -60415,7 +60854,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="969" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A969" s="29" t="s">
         <v>281</v>
       </c>
@@ -60427,6 +60866,9 @@
       </c>
       <c r="D969" s="9" t="s">
         <v>327</v>
+      </c>
+      <c r="E969" t="s">
+        <v>281</v>
       </c>
       <c r="F969" s="9" t="s">
         <v>255</v>
@@ -60450,7 +60892,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="970" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A970" s="29" t="s">
         <v>281</v>
       </c>
@@ -60462,6 +60904,9 @@
       </c>
       <c r="D970" s="9" t="s">
         <v>327</v>
+      </c>
+      <c r="E970" t="s">
+        <v>281</v>
       </c>
       <c r="F970" s="9" t="s">
         <v>324</v>
@@ -60708,16 +61153,46 @@
         <v>83</v>
       </c>
     </row>
+    <row r="978" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A978" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="B978" t="s">
+        <v>134</v>
+      </c>
+      <c r="C978" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D978" t="s">
+        <v>201</v>
+      </c>
+      <c r="I978" t="s">
+        <v>202</v>
+      </c>
+      <c r="J978" s="35">
+        <v>10000000</v>
+      </c>
+      <c r="K978">
+        <v>0</v>
+      </c>
+      <c r="L978">
+        <v>0</v>
+      </c>
+      <c r="AM978" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AY977" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <autoFilter ref="A1:AY978" xr:uid="{00000000-0001-0000-0700-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Czechia"/>
+        <filter val="default"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="PERSON_EARTH"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="MODAL_SPLIT"/>
+        <filter val="FREIGHT_AIR"/>
       </filters>
     </filterColumn>
   </autoFilter>
